--- a/Configuration/TestData.xlsx
+++ b/Configuration/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWright_POC/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWright_POC/Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="236" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C88EE041-B74B-40AD-951E-299D4F4249EE}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E58335-8C4D-47B4-826E-0E7DA4EB8E56}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>testCase_ID</t>
   </si>
@@ -114,9 +114,6 @@
     <t>payAmt1;Antenna</t>
   </si>
   <si>
-    <t>100-5;rated-6009;1</t>
-  </si>
-  <si>
     <t>TEST-28845</t>
   </si>
   <si>
@@ -150,10 +147,22 @@
     <t>B3;P2</t>
   </si>
   <si>
-    <t>P1;500;P1</t>
-  </si>
-  <si>
     <t>500;P1</t>
+  </si>
+  <si>
+    <t>1000;rated-6009;1</t>
+  </si>
+  <si>
+    <t>500;rated-6009;1</t>
+  </si>
+  <si>
+    <t>P1;1000;P1</t>
+  </si>
+  <si>
+    <t>P2;500;P1</t>
+  </si>
+  <si>
+    <t>1000;P1</t>
   </si>
 </sst>
 </file>
@@ -480,7 +489,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,10 +588,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -597,18 +612,21 @@
         <v>14</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="X2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>32</v>
       </c>
       <c r="P3" t="s">
         <v>12</v>
@@ -623,36 +641,36 @@
         <v>13</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="P4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" t="s">
         <v>37</v>
-      </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>38</v>
       </c>
       <c r="R4" t="s">
         <v>12</v>
       </c>
       <c r="S4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
         <v>39</v>
-      </c>
-      <c r="V4" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Configuration/TestData.xlsx
+++ b/Configuration/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWright_POC/Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E58335-8C4D-47B4-826E-0E7DA4EB8E56}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D45F353A-428B-4D5A-8415-AF48336C44C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,22 +147,22 @@
     <t>B3;P2</t>
   </si>
   <si>
+    <t>1000;rated-6009;1</t>
+  </si>
+  <si>
+    <t>500;rated-6009;1</t>
+  </si>
+  <si>
+    <t>P1;1000;P1</t>
+  </si>
+  <si>
+    <t>P2;500;P1</t>
+  </si>
+  <si>
+    <t>1000;P1</t>
+  </si>
+  <si>
     <t>500;P1</t>
-  </si>
-  <si>
-    <t>1000;rated-6009;1</t>
-  </si>
-  <si>
-    <t>500;rated-6009;1</t>
-  </si>
-  <si>
-    <t>P1;1000;P1</t>
-  </si>
-  <si>
-    <t>P2;500;P1</t>
-  </si>
-  <si>
-    <t>1000;P1</t>
   </si>
 </sst>
 </file>
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,16 +588,16 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>42</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>44</v>
       </c>
       <c r="P2" t="s">
         <v>13</v>
@@ -612,10 +612,10 @@
         <v>14</v>
       </c>
       <c r="W2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" t="s">
         <v>45</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">

--- a/Configuration/TestData.xlsx
+++ b/Configuration/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/prasad_kamble_wdtablesystems_com/Documents/Documents/PlayWrightProject/PlayWright_POC/Configuration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wdtablesystems-my.sharepoint.com/personal/vishal_khurana_wdtablesystems_com/Documents/PlayWright_Project/PlayWright_POC/Configuration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="245" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4E58335-8C4D-47B4-826E-0E7DA4EB8E56}"/>
+  <xr:revisionPtr revIDLastSave="250" documentId="11_F25DC773A252ABDACC1048D4E99B63705BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6FA8BF4-F5EF-4B8F-A799-3127BAF9F233}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testData" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>testCase_ID</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>1000;P1</t>
+  </si>
+  <si>
+    <t>TEST-33160</t>
+  </si>
+  <si>
+    <t>500;rated-6001;1</t>
+  </si>
+  <si>
+    <t>P1;500;P2</t>
   </si>
 </sst>
 </file>
@@ -486,27 +495,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="29.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="29.7265625" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="24" customWidth="1"/>
-    <col min="16" max="21" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="5.7265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +592,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -618,7 +627,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -644,7 +653,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -671,6 +680,17 @@
       </c>
       <c r="V4" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
